--- a/xlsx/议会制_intext.xlsx
+++ b/xlsx/议会制_intext.xlsx
@@ -15,23 +15,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>议会制</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
   </si>
   <si>
+    <t>政策_政策_行政_议会制</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
   </si>
   <si>
     <t>总统</t>
   </si>
   <si>
-    <t>政策_政策_政治_议会制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
@@ -95,7 +98,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -119,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>行政權</t>
+    <t>行政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9D%83</t>
@@ -143,61 +146,52 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%90%86</t>
   </si>
   <si>
-    <t>总理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
-    <t>內閣</t>
+    <t>内阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E6%8A%95%E7%A5%A8</t>
@@ -221,21 +215,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
+    <t>马绍尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
@@ -245,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E9%99%B8</t>
   </si>
   <si>
-    <t>奧斯陸</t>
+    <t>奥斯陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -293,9 +284,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
@@ -317,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -329,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%B2%A1%E6%94%BF%E5%A4%A7%E8%87%A3</t>
   </si>
   <si>
-    <t>第一財政大臣</t>
+    <t>第一财政大臣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E6%B3%A2%E5%B0%94</t>
@@ -341,25 +329,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>英國政府</t>
+    <t>英国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -377,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>魏瑪共和國</t>
+    <t>魏玛共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -437,25 +425,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -479,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -497,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -509,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -563,9 +551,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -581,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
@@ -611,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -629,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -671,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
+    <t>库克群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E5%9F%83</t>
@@ -689,19 +674,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -719,9 +704,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%99%E9%B2%81</t>
   </si>
   <si>
@@ -731,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -749,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B4%BE%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>少數派政府</t>
+    <t>少数派政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -779,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E5%BE%B7%C2%B7%E5%A5%A7%E5%88%A9%E7%B6%AD%E6%8B%89%C2%B7%E8%96%A9%E6%8B%89%E6%9F%A5</t>
   </si>
   <si>
-    <t>安東尼奧·德·奧利維拉·薩拉查</t>
+    <t>安东尼奥·德·奥利维拉·萨拉查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%83%E5%8B%81%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>較勁國會</t>
+    <t>较劲国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%BC%98%E5%8A%BF%E5%88%B6</t>
@@ -797,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E7%A9%BA%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>懸空國會</t>
+    <t>悬空国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -809,19 +791,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%81%B8%E5%8D%80%E5%88%B6</t>
   </si>
   <si>
-    <t>小選區制</t>
+    <t>小选区制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E5%AE%B6%E9%BB%A8</t>
   </si>
   <si>
-    <t>英國國家黨</t>
+    <t>英国国家党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>日本共產黨</t>
+    <t>日本共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A%E5%88%B6%E5%BA%A6</t>
@@ -833,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>多黨制</t>
+    <t>多党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%95%8F%E5%88%B6</t>
@@ -893,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E5%88%B6</t>
@@ -917,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -929,16 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,13 +1311,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -1364,16 +1337,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -1393,16 +1366,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -1422,16 +1395,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1451,16 +1424,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1480,16 +1453,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1509,16 +1482,16 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
@@ -1538,16 +1511,16 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1567,16 +1540,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1596,16 +1569,16 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1625,16 +1598,16 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1654,16 +1627,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1683,16 +1656,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -1712,16 +1685,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1741,16 +1714,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -1770,16 +1743,16 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -1799,16 +1772,16 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3</v>
@@ -1828,16 +1801,16 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
@@ -1857,16 +1830,16 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -1886,16 +1859,16 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>42</v>
-      </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -1915,16 +1888,16 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -1944,16 +1917,16 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -1973,16 +1946,16 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3</v>
@@ -2002,16 +1975,16 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3</v>
@@ -2031,16 +2004,16 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -2060,16 +2033,16 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2089,16 +2062,16 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
@@ -2118,16 +2091,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2147,16 +2120,16 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2176,16 +2149,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2205,16 +2178,16 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2234,16 +2207,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2263,16 +2236,16 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2292,16 +2265,16 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -2321,16 +2294,16 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -2350,16 +2323,16 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
@@ -2379,16 +2352,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -2408,16 +2381,16 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -2437,16 +2410,16 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -2466,16 +2439,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -2495,16 +2468,16 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
@@ -2524,16 +2497,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
@@ -2553,16 +2526,16 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -2582,16 +2555,16 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -2611,16 +2584,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3</v>
@@ -2640,16 +2613,16 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -2669,16 +2642,16 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
@@ -2698,16 +2671,16 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -2727,16 +2700,16 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -2756,16 +2729,16 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>3</v>
@@ -2785,16 +2758,16 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -2814,16 +2787,16 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -2843,16 +2816,16 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -2872,16 +2845,16 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -2901,16 +2874,16 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
@@ -2930,16 +2903,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>3</v>
@@ -2959,16 +2932,16 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>3</v>
@@ -2988,16 +2961,16 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -3017,16 +2990,16 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -3046,16 +3019,16 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>3</v>
@@ -3075,16 +3048,16 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>3</v>
@@ -3104,16 +3077,16 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -3133,16 +3106,16 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
         <v>3</v>
@@ -3162,16 +3135,16 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -3191,16 +3164,16 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -3220,16 +3193,16 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>3</v>
@@ -3249,16 +3222,16 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -3278,16 +3251,16 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
         <v>3</v>
@@ -3307,16 +3280,16 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
         <v>3</v>
@@ -3336,16 +3309,16 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
         <v>3</v>
@@ -3365,16 +3338,16 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -3394,16 +3367,16 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -3423,16 +3396,16 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -3452,16 +3425,16 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -3481,16 +3454,16 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -3510,16 +3483,16 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>3</v>
@@ -3539,16 +3512,16 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -3568,16 +3541,16 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -3597,16 +3570,16 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -3626,16 +3599,16 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
         <v>3</v>
@@ -3655,16 +3628,16 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -3684,16 +3657,16 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -3713,16 +3686,16 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -3742,16 +3715,16 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -3771,16 +3744,16 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -3800,16 +3773,16 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -3829,16 +3802,16 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -3858,16 +3831,16 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -3887,16 +3860,16 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -3916,16 +3889,16 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
       </c>
       <c r="H91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -3945,16 +3918,16 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -3974,16 +3947,16 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
         <v>3</v>
@@ -4003,16 +3976,16 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>3</v>
@@ -4032,16 +4005,16 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
@@ -4061,16 +4034,16 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -4090,16 +4063,16 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>3</v>
@@ -4119,16 +4092,16 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -4148,16 +4121,16 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -4177,16 +4150,16 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -4206,16 +4179,16 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -4235,16 +4208,16 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -4264,16 +4237,16 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -4293,16 +4266,16 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -4322,16 +4295,16 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I105" t="n">
         <v>3</v>
@@ -4351,16 +4324,16 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
@@ -4380,16 +4353,16 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -4409,16 +4382,16 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -4438,16 +4411,16 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>3</v>
@@ -4467,16 +4440,16 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
         <v>3</v>
@@ -4496,16 +4469,16 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -4525,16 +4498,16 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -4554,16 +4527,16 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -4583,16 +4556,16 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
         <v>3</v>
@@ -4612,16 +4585,16 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -4641,16 +4614,16 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -4670,16 +4643,16 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -4699,16 +4672,16 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -4728,16 +4701,16 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -4757,16 +4730,16 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -4786,16 +4759,16 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -4815,16 +4788,16 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
         <v>3</v>
@@ -4844,16 +4817,16 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -4873,16 +4846,16 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -4902,16 +4875,16 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -4931,16 +4904,16 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
         <v>3</v>
@@ -4960,16 +4933,16 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -4989,16 +4962,16 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G128" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -5018,16 +4991,16 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G129" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -5047,16 +5020,16 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -5076,16 +5049,16 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>3</v>
@@ -5105,16 +5078,16 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -5134,16 +5107,16 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -5163,16 +5136,16 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>3</v>
@@ -5192,16 +5165,16 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -5221,16 +5194,16 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>3</v>
@@ -5250,16 +5223,16 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137" t="n">
         <v>3</v>
@@ -5279,16 +5252,16 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -5308,16 +5281,16 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G139" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -5337,16 +5310,16 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F140" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -5366,16 +5339,16 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="G141" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -5395,16 +5368,16 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -5424,16 +5397,16 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>3</v>
@@ -5453,16 +5426,16 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -5482,16 +5455,16 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I145" t="n">
         <v>3</v>
@@ -5511,16 +5484,16 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -5540,16 +5513,16 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -5569,16 +5542,16 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -5598,16 +5571,16 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -5627,16 +5600,16 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -5656,16 +5629,16 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3</v>
@@ -5685,16 +5658,16 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -5714,16 +5687,16 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -5743,16 +5716,16 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -5772,16 +5745,16 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="n">
         <v>3</v>
@@ -5801,16 +5774,16 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -5830,16 +5803,16 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
@@ -5859,16 +5832,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -5888,16 +5861,16 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -5917,16 +5890,16 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -5946,16 +5919,16 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -5975,47 +5948,18 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>307</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1</v>
-      </c>
-      <c r="H163" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/议会制_intext.xlsx
+++ b/xlsx/议会制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>总统</t>
   </si>
   <si>
-    <t>政策_政策_政治_议会制</t>
+    <t>体育运动_体育运动_南非_议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -2501,7 +2501,7 @@
         <v>82</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
